--- a/Python/Forest.xlsx
+++ b/Python/Forest.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="19440" windowHeight="12240" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="468" windowWidth="19440" windowHeight="12240" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="2" r:id="rId1"/>
+    <sheet name="Foglio3" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>p</t>
   </si>
@@ -34,6 +35,48 @@
   </si>
   <si>
     <t>s</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>a1</t>
+  </si>
+  <si>
+    <t>a2</t>
+  </si>
+  <si>
+    <t>a3</t>
+  </si>
+  <si>
+    <t>a4</t>
+  </si>
+  <si>
+    <t>a5</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a6</t>
+  </si>
+  <si>
+    <t>a7</t>
+  </si>
+  <si>
+    <t>a8</t>
+  </si>
+  <si>
+    <t>a9</t>
+  </si>
+  <si>
+    <t>a10</t>
+  </si>
+  <si>
+    <t>a11</t>
+  </si>
+  <si>
+    <t>a12</t>
   </si>
 </sst>
 </file>
@@ -343,7 +386,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,13 +396,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -376,7 +419,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>75</v>
       </c>
@@ -393,7 +436,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3">
         <v>140</v>
@@ -408,7 +451,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4">
         <v>203</v>
@@ -423,7 +466,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>90</v>
       </c>
@@ -440,7 +483,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6">
         <v>100</v>
@@ -455,7 +498,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7">
         <v>45</v>
@@ -470,7 +513,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>140</v>
       </c>
@@ -487,7 +530,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9">
         <v>105</v>
@@ -502,7 +545,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10">
         <v>40</v>
@@ -517,7 +560,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>60</v>
       </c>
@@ -534,7 +577,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12">
         <v>40</v>
@@ -549,7 +592,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13">
         <v>295</v>
@@ -564,7 +607,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>212</v>
       </c>
@@ -581,7 +624,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15">
         <v>460</v>
@@ -596,7 +639,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16">
         <v>120</v>
@@ -611,7 +654,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>98</v>
       </c>
@@ -628,7 +671,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18">
         <v>55</v>
@@ -643,7 +686,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19">
         <v>180</v>
@@ -658,7 +701,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>113</v>
       </c>
@@ -675,7 +718,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21">
         <v>60</v>
@@ -690,7 +733,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22">
         <v>400</v>
@@ -717,4 +760,396 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1">
+        <v>1000</v>
+      </c>
+      <c r="C1">
+        <v>-1000</v>
+      </c>
+      <c r="D1">
+        <v>-6.4999999999999997E-3</v>
+      </c>
+      <c r="E1">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="F1">
+        <v>-0.03</v>
+      </c>
+      <c r="G1">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="H1">
+        <v>-0.01</v>
+      </c>
+      <c r="I1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="J1">
+        <v>-1.0999999999999999E-2</v>
+      </c>
+      <c r="K1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="L1">
+        <v>75</v>
+      </c>
+      <c r="M1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>16</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>9</v>
+      </c>
+      <c r="F2">
+        <v>48</v>
+      </c>
+      <c r="G2">
+        <v>60</v>
+      </c>
+      <c r="H2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>-1</v>
+      </c>
+      <c r="C4">
+        <v>-1</v>
+      </c>
+      <c r="D4">
+        <v>-1</v>
+      </c>
+      <c r="E4">
+        <v>-1</v>
+      </c>
+      <c r="F4">
+        <v>-1</v>
+      </c>
+      <c r="G4">
+        <v>-1</v>
+      </c>
+      <c r="H4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="C5">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="D5">
+        <v>-8.5000000000000006E-3</v>
+      </c>
+      <c r="E5">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C6">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D6">
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="E6">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>-0.18</v>
+      </c>
+      <c r="C7">
+        <v>-3.2000000000000001E-2</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>-1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>0.18</v>
+      </c>
+      <c r="C8">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>-0.12</v>
+      </c>
+      <c r="C9">
+        <v>-1.0999999999999999E-2</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>-1</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>0.12</v>
+      </c>
+      <c r="C10">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>-1E-3</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>1E-3</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>